--- a/static/others/score_tag.xlsx
+++ b/static/others/score_tag.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="2260" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="score" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="85">
   <si>
     <t>标签参数</t>
     <rPh sb="0" eb="1">
@@ -701,6 +701,20 @@
   </si>
   <si>
     <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定量分析（用户）</t>
+    <rPh sb="5" eb="6">
+      <t>yong'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定量分析（对方）</t>
+    <rPh sb="5" eb="6">
+      <t>dui'fang</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,7 +768,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -777,11 +791,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -801,14 +852,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1123,12 +1183,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
+      <c r="B2" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -1144,8 +1204,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1160,8 +1220,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1176,8 +1236,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1192,8 +1252,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1208,8 +1268,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1224,8 +1284,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1240,8 +1300,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1256,8 +1316,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1272,8 +1332,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1348,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1304,453 +1364,447 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="D24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="2" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="D25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="2" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="D26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="2" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="D27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="2" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="2" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="2" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="2" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="2" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="2" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B36" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="9" t="s">
+      <c r="E36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="9" t="s">
+      <c r="E37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="E38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F39" s="6" t="s">
@@ -1758,15 +1812,15 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F40" s="6" t="s">
@@ -1774,199 +1828,199 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F52" s="6" t="s">
@@ -1974,183 +2028,183 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="8" t="s">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F63" s="6" t="s">
@@ -2158,15 +2212,15 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D64" s="8" t="s">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -2174,15 +2228,15 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" s="8" t="s">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F65" s="6" t="s">
@@ -2190,151 +2244,151 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7" t="s">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C67" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F74" s="6" t="s">
@@ -2342,15 +2396,15 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" s="8" t="s">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F75" s="6" t="s">
@@ -2358,15 +2412,15 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76" s="8" t="s">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F76" s="6" t="s">
@@ -2374,83 +2428,268 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7" t="s">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="9" t="s">
+      <c r="D85" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="8" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D78" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="9" t="s">
+      <c r="D89" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="8" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D79" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="9" t="s">
+      <c r="D90" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="A32:A47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B69:B73"/>
+  <mergeCells count="27">
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A80:A90"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="A59:A70"/>
+    <mergeCell ref="B71:B73"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A69:A79"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A48:A59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="A60:A68"/>
+    <mergeCell ref="A71:A79"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="A43:A58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A24:A35"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/others/score_tag.xlsx
+++ b/static/others/score_tag.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="86">
   <si>
     <t>标签参数</t>
     <rPh sb="0" eb="1">
@@ -532,10 +532,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对关系影响程度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二、非言语信息系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -715,6 +711,13 @@
     <rPh sb="5" eb="6">
       <t>dui'fang</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危机影响程度</t>
+  </si>
+  <si>
+    <t>对关系促进程度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1149,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1165,16 +1168,16 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -1188,13 +1191,13 @@
         <v>15</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
@@ -1210,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -1226,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -1242,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
@@ -1258,7 +1261,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
@@ -1274,7 +1277,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -1290,7 +1293,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
@@ -1306,7 +1309,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
@@ -1322,7 +1325,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -1338,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -1354,7 +1357,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>13</v>
@@ -1366,13 +1369,13 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>13</v>
@@ -1388,7 +1391,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
@@ -1404,7 +1407,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>13</v>
@@ -1420,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
@@ -1436,7 +1439,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>13</v>
@@ -1452,7 +1455,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
@@ -1468,7 +1471,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>13</v>
@@ -1484,7 +1487,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>13</v>
@@ -1500,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
@@ -1516,7 +1519,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>13</v>
@@ -1532,7 +1535,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>13</v>
@@ -1546,13 +1549,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>13</v>
@@ -1568,7 +1571,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>13</v>
@@ -1584,7 +1587,7 @@
         <v>18</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>13</v>
@@ -1600,7 +1603,7 @@
         <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>13</v>
@@ -1618,7 +1621,7 @@
         <v>21</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>26</v>
@@ -1634,7 +1637,7 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>26</v>
@@ -1650,7 +1653,7 @@
         <v>23</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>26</v>
@@ -1666,7 +1669,7 @@
         <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>26</v>
@@ -1678,13 +1681,13 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>13</v>
@@ -1700,7 +1703,7 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>13</v>
@@ -1716,7 +1719,7 @@
         <v>23</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>13</v>
@@ -1732,7 +1735,7 @@
         <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>13</v>
@@ -1743,16 +1746,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>13</v>
@@ -1765,10 +1768,10 @@
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>13</v>
@@ -1781,10 +1784,10 @@
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>13</v>
@@ -1799,10 +1802,10 @@
         <v>31</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>26</v>
@@ -1815,10 +1818,10 @@
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>26</v>
@@ -1830,13 +1833,13 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>13</v>
@@ -1849,10 +1852,10 @@
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>13</v>
@@ -1863,16 +1866,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>13</v>
@@ -1885,10 +1888,10 @@
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>13</v>
@@ -1901,10 +1904,10 @@
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>13</v>
@@ -1917,10 +1920,10 @@
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>13</v>
@@ -1935,10 +1938,10 @@
         <v>31</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>26</v>
@@ -1951,10 +1954,10 @@
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>26</v>
@@ -1967,10 +1970,10 @@
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>26</v>
@@ -1983,10 +1986,10 @@
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>26</v>
@@ -1999,10 +2002,10 @@
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>26</v>
@@ -2015,10 +2018,10 @@
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>26</v>
@@ -2030,13 +2033,13 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>13</v>
@@ -2049,10 +2052,10 @@
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>13</v>
@@ -2065,10 +2068,10 @@
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>13</v>
@@ -2081,10 +2084,10 @@
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>13</v>
@@ -2097,10 +2100,10 @@
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>13</v>
@@ -2113,10 +2116,10 @@
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>13</v>
@@ -2127,16 +2130,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>13</v>
@@ -2149,10 +2152,10 @@
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>13</v>
@@ -2165,10 +2168,10 @@
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>13</v>
@@ -2181,10 +2184,10 @@
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>13</v>
@@ -2199,10 +2202,10 @@
         <v>31</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>26</v>
@@ -2215,10 +2218,10 @@
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>26</v>
@@ -2231,10 +2234,10 @@
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>26</v>
@@ -2247,10 +2250,10 @@
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>26</v>
@@ -2262,13 +2265,13 @@
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>13</v>
@@ -2281,10 +2284,10 @@
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>13</v>
@@ -2297,10 +2300,10 @@
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>13</v>
@@ -2313,10 +2316,10 @@
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>13</v>
@@ -2327,16 +2330,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>13</v>
@@ -2349,10 +2352,10 @@
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>13</v>
@@ -2365,10 +2368,10 @@
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>13</v>
@@ -2383,10 +2386,10 @@
         <v>31</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>26</v>
@@ -2399,10 +2402,10 @@
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>26</v>
@@ -2415,10 +2418,10 @@
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>26</v>
@@ -2430,13 +2433,13 @@
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>13</v>
@@ -2449,10 +2452,10 @@
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>13</v>
@@ -2465,10 +2468,10 @@
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>13</v>
@@ -2479,16 +2482,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>13</v>
@@ -2501,10 +2504,10 @@
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>13</v>
@@ -2517,10 +2520,10 @@
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>13</v>
@@ -2533,10 +2536,10 @@
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>13</v>
@@ -2549,10 +2552,10 @@
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>13</v>
@@ -2567,10 +2570,10 @@
         <v>31</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>26</v>
@@ -2583,10 +2586,10 @@
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>26</v>
@@ -2599,10 +2602,10 @@
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>26</v>
@@ -2614,13 +2617,13 @@
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>13</v>
@@ -2633,10 +2636,10 @@
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>13</v>
@@ -2649,10 +2652,10 @@
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>13</v>
@@ -2663,6 +2666,22 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A24:A35"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="A43:A58"/>
+    <mergeCell ref="B59:B62"/>
     <mergeCell ref="B80:B84"/>
     <mergeCell ref="B85:B87"/>
     <mergeCell ref="B88:B90"/>
@@ -2674,22 +2693,6 @@
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B77:B79"/>
     <mergeCell ref="A71:A79"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="A43:A58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A24:A35"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/others/score_tag.xlsx
+++ b/static/others/score_tag.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21860" tabRatio="500"/>
+    <workbookView xWindow="5360" yWindow="540" windowWidth="20820" windowHeight="21860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="score" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="87">
   <si>
     <t>标签参数</t>
     <rPh sb="0" eb="1">
@@ -36,7 +36,7 @@
     <rPh sb="2" eb="3">
       <t>can'shu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>区间划分</t>
@@ -46,7 +46,7 @@
     <rPh sb="2" eb="3">
       <t>hua'fen</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>亲密度</t>
@@ -255,7 +255,7 @@
   </si>
   <si>
     <t>定量分析（双方数值）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>拥有共同话题</t>
@@ -513,31 +513,24 @@
     </r>
   </si>
   <si>
-    <t>1/2/3</t>
-  </si>
-  <si>
-    <t>1/2/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一、共享的同一性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>对关系促进程度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>危机爆发概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>二、非言语信息系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>危机影响程度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>外貌</t>
@@ -559,14 +552,14 @@
     <rPh sb="0" eb="1">
       <t>da'biao't</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>小标题</t>
     <rPh sb="0" eb="1">
       <t>xiao'biao't</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>主动沟通交流</t>
@@ -600,11 +593,11 @@
   </si>
   <si>
     <t>三、信息对称协调能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>四、合理利他信念</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>分担日常琐事</t>
@@ -632,7 +625,7 @@
   </si>
   <si>
     <t>五、内在价值随迁性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>换位思考</t>
@@ -654,7 +647,7 @@
   </si>
   <si>
     <t>六、泛依恋关系投射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>分享秘密</t>
@@ -682,50 +675,247 @@
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>number</t>
   </si>
   <si>
     <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>定量分析（用户）</t>
     <rPh sb="5" eb="6">
       <t>yong'hu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>定量分析（对方）</t>
     <rPh sb="5" eb="6">
       <t>dui'fang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>危机影响程度</t>
   </si>
   <si>
     <t>对关系促进程度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>30/31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>70/71</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>30/31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>70/71</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>30/31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>70/71</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -835,28 +1025,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1152,32 +1333,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="5"/>
-    <col min="5" max="5" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="21.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -1187,1485 +1369,1501 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>82</v>
+      <c r="B2" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="9" t="s">
-        <v>83</v>
+      <c r="A13" s="8"/>
+      <c r="B13" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>85</v>
+      <c r="A24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9" t="s">
-        <v>31</v>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>28</v>
+      <c r="F28" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>28</v>
+      <c r="F29" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>27</v>
+      <c r="F30" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>27</v>
+      <c r="F31" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9" t="s">
-        <v>84</v>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="E39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="2" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="8" t="s">
+      <c r="E47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="2" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="E63" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="2" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="8" t="s">
+      <c r="E74" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="C88" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="8" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C85" s="7" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" s="8" t="s">
+      <c r="D90" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="5" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A80:A90"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="A59:A70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A71:A79"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="A43:A58"/>
+    <mergeCell ref="B59:B62"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:B42"/>
@@ -2677,24 +2875,8 @@
     <mergeCell ref="A24:A35"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B13:B23"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="A43:A58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="A80:A90"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="A59:A70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A71:A79"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/static/others/score_tag.xlsx
+++ b/static/others/score_tag.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="540" windowWidth="20820" windowHeight="21860" tabRatio="500"/>
+    <workbookView xWindow="18260" yWindow="2140" windowWidth="26780" windowHeight="21860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="score" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="96">
   <si>
     <t>标签参数</t>
     <rPh sb="0" eb="1">
@@ -36,7 +36,7 @@
     <rPh sb="2" eb="3">
       <t>can'shu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>区间划分</t>
@@ -46,7 +46,7 @@
     <rPh sb="2" eb="3">
       <t>hua'fen</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>亲密度</t>
@@ -255,7 +255,7 @@
   </si>
   <si>
     <t>定量分析（双方数值）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拥有共同话题</t>
@@ -514,23 +514,23 @@
   </si>
   <si>
     <t>一、共享的同一性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>对关系促进程度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>危机爆发概率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>二、非言语信息系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>危机影响程度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>外貌</t>
@@ -552,14 +552,14 @@
     <rPh sb="0" eb="1">
       <t>da'biao't</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小标题</t>
     <rPh sb="0" eb="1">
       <t>xiao'biao't</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主动沟通交流</t>
@@ -593,11 +593,11 @@
   </si>
   <si>
     <t>三、信息对称协调能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>四、合理利他信念</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>分担日常琐事</t>
@@ -625,7 +625,7 @@
   </si>
   <si>
     <t>五、内在价值随迁性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>换位思考</t>
@@ -647,7 +647,7 @@
   </si>
   <si>
     <t>六、泛依恋关系投射</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>分享秘密</t>
@@ -675,43 +675,43 @@
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>number</t>
   </si>
   <si>
     <t>number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>定量分析（用户）</t>
     <rPh sb="5" eb="6">
       <t>yong'hu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>定量分析（对方）</t>
     <rPh sb="5" eb="6">
       <t>dui'fang</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>危机影响程度</t>
   </si>
   <si>
     <t>对关系促进程度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -830,7 +830,7 @@
       </rPr>
       <t>100</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -901,21 +901,243 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>接触程度</t>
+    <rPh sb="0" eb="1">
+      <t>jie'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相处模式</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主从</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'cong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作</t>
+    <rPh sb="0" eb="1">
+      <t>he'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞争</t>
+    <rPh sb="0" eb="1">
+      <t>jing'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定性分析</t>
+    <rPh sb="0" eb="1">
+      <t>ding'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>零接触</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浅层接触</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中度接触</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深层接触</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完全融合</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>20/21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>40/41</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>60/61</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>80/81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>100</t>
+    </r>
+  </si>
+  <si>
+    <t>程度</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1025,22 +1247,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1331,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1343,7 +1568,7 @@
     <col min="2" max="2" width="17.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="4"/>
   </cols>
@@ -1369,10 +1594,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1389,8 +1614,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1405,8 +1630,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1421,8 +1646,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1437,8 +1662,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1453,8 +1678,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1469,8 +1694,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1485,8 +1710,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1501,8 +1726,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1517,8 +1742,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1533,8 +1758,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1549,8 +1774,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1567,8 +1792,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1583,8 +1808,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1599,8 +1824,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1615,8 +1840,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1631,8 +1856,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1647,8 +1872,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1663,8 +1888,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1679,8 +1904,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
@@ -1695,8 +1920,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1711,8 +1936,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
@@ -1727,10 +1952,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>83</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1747,8 +1972,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
@@ -1763,8 +1988,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
@@ -1779,8 +2004,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
@@ -1795,8 +2020,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1813,8 +2038,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
@@ -1829,8 +2054,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="2" t="s">
         <v>23</v>
       </c>
@@ -1845,8 +2070,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
@@ -1861,8 +2086,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1879,8 +2104,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="2" t="s">
         <v>22</v>
       </c>
@@ -1895,8 +2120,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="2" t="s">
         <v>23</v>
       </c>
@@ -1911,8 +2136,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="2" t="s">
         <v>24</v>
       </c>
@@ -1927,10 +2152,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -1947,8 +2172,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="5" t="s">
         <v>33</v>
       </c>
@@ -1963,8 +2188,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="5" t="s">
         <v>34</v>
       </c>
@@ -1979,8 +2204,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -1997,8 +2222,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="5" t="s">
         <v>36</v>
       </c>
@@ -2013,8 +2238,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -2031,8 +2256,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
       <c r="C42" s="5" t="s">
         <v>36</v>
       </c>
@@ -2047,10 +2272,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -2067,8 +2292,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
       <c r="C44" s="5" t="s">
         <v>40</v>
       </c>
@@ -2083,8 +2308,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="5" t="s">
         <v>41</v>
       </c>
@@ -2099,8 +2324,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="5" t="s">
         <v>42</v>
       </c>
@@ -2115,8 +2340,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6" t="s">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -2133,8 +2358,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="5" t="s">
         <v>44</v>
       </c>
@@ -2149,8 +2374,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="5" t="s">
         <v>45</v>
       </c>
@@ -2165,8 +2390,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="5" t="s">
         <v>46</v>
       </c>
@@ -2181,8 +2406,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="5" t="s">
         <v>47</v>
       </c>
@@ -2197,8 +2422,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="5" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2438,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -2231,8 +2456,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="5" t="s">
         <v>44</v>
       </c>
@@ -2247,8 +2472,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="5" t="s">
         <v>45</v>
       </c>
@@ -2263,8 +2488,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="5" t="s">
         <v>46</v>
       </c>
@@ -2279,8 +2504,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
       <c r="C57" s="5" t="s">
         <v>47</v>
       </c>
@@ -2295,8 +2520,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
       <c r="C58" s="5" t="s">
         <v>48</v>
       </c>
@@ -2311,10 +2536,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -2331,8 +2556,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="5" t="s">
         <v>52</v>
       </c>
@@ -2347,8 +2572,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
       <c r="C61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2363,8 +2588,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
       <c r="C62" s="5" t="s">
         <v>54</v>
       </c>
@@ -2379,8 +2604,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6" t="s">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -2397,8 +2622,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="5" t="s">
         <v>56</v>
       </c>
@@ -2413,8 +2638,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
       <c r="C65" s="5" t="s">
         <v>57</v>
       </c>
@@ -2429,8 +2654,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
       <c r="C66" s="5" t="s">
         <v>58</v>
       </c>
@@ -2445,8 +2670,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6" t="s">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -2463,8 +2688,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
       <c r="C68" s="5" t="s">
         <v>56</v>
       </c>
@@ -2479,8 +2704,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
       <c r="C69" s="5" t="s">
         <v>57</v>
       </c>
@@ -2495,8 +2720,8 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="5" t="s">
         <v>58</v>
       </c>
@@ -2511,10 +2736,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -2531,8 +2756,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
       <c r="C72" s="5" t="s">
         <v>61</v>
       </c>
@@ -2547,8 +2772,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
       <c r="C73" s="5" t="s">
         <v>62</v>
       </c>
@@ -2563,8 +2788,8 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6" t="s">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -2581,8 +2806,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
       <c r="C75" s="5" t="s">
         <v>64</v>
       </c>
@@ -2597,8 +2822,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
       <c r="C76" s="5" t="s">
         <v>65</v>
       </c>
@@ -2613,8 +2838,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6" t="s">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -2631,8 +2856,8 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
       <c r="C78" s="5" t="s">
         <v>64</v>
       </c>
@@ -2647,8 +2872,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
       <c r="C79" s="5" t="s">
         <v>65</v>
       </c>
@@ -2663,10 +2888,10 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -2683,8 +2908,8 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="5" t="s">
         <v>68</v>
       </c>
@@ -2699,8 +2924,8 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="5" t="s">
         <v>69</v>
       </c>
@@ -2715,8 +2940,8 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
       <c r="C83" s="5" t="s">
         <v>70</v>
       </c>
@@ -2731,8 +2956,8 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
       <c r="C84" s="5" t="s">
         <v>71</v>
       </c>
@@ -2747,8 +2972,8 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6" t="s">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C85" s="5" t="s">
@@ -2765,8 +2990,8 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
       <c r="C86" s="5" t="s">
         <v>73</v>
       </c>
@@ -2781,8 +3006,8 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
       <c r="C87" s="5" t="s">
         <v>74</v>
       </c>
@@ -2797,8 +3022,8 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6" t="s">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -2815,8 +3040,8 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
       <c r="C89" s="5" t="s">
         <v>73</v>
       </c>
@@ -2831,8 +3056,8 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
       <c r="C90" s="5" t="s">
         <v>74</v>
       </c>
@@ -2846,8 +3071,96 @@
         <v>25</v>
       </c>
     </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A24:A35"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="A43:A58"/>
+    <mergeCell ref="B59:B62"/>
     <mergeCell ref="B80:B84"/>
     <mergeCell ref="B85:B87"/>
     <mergeCell ref="B88:B90"/>
@@ -2859,24 +3172,8 @@
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B77:B79"/>
     <mergeCell ref="A71:A79"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="A43:A58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A24:A35"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B13:B23"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/static/others/score_tag.xlsx
+++ b/static/others/score_tag.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18260" yWindow="2140" windowWidth="26780" windowHeight="21860" tabRatio="500"/>
+    <workbookView xWindow="11620" yWindow="460" windowWidth="26780" windowHeight="21860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="score" sheetId="1" r:id="rId1"/>
@@ -693,20 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定量分析（用户）</t>
-    <rPh sb="5" eb="6">
-      <t>yong'hu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定量分析（对方）</t>
-    <rPh sb="5" eb="6">
-      <t>dui'fang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>危机影响程度</t>
   </si>
   <si>
@@ -1129,6 +1115,20 @@
     <t>程度</t>
     <rPh sb="0" eb="1">
       <t>cheng'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定量分析（用户1）</t>
+    <rPh sb="5" eb="6">
+      <t>yong'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定量分析（用户2）</t>
+    <rPh sb="5" eb="6">
+      <t>yong'hu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1558,14 +1558,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="J95" sqref="J95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.5" style="4" bestFit="1" customWidth="1"/>
@@ -1598,7 +1598,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -1776,7 +1776,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
@@ -1956,7 +1956,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>16</v>
@@ -2034,7 +2034,7 @@
         <v>26</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2050,7 +2050,7 @@
         <v>26</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2066,7 +2066,7 @@
         <v>26</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2082,13 +2082,13 @@
         <v>26</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>21</v>
@@ -2218,7 +2218,7 @@
         <v>26</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.25">
@@ -2234,7 +2234,7 @@
         <v>26</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2354,7 +2354,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.25">
@@ -2370,7 +2370,7 @@
         <v>26</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.25">
@@ -2386,7 +2386,7 @@
         <v>26</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.25">
@@ -2402,7 +2402,7 @@
         <v>26</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.25">
@@ -2418,7 +2418,7 @@
         <v>26</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.25">
@@ -2434,7 +2434,7 @@
         <v>26</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2618,7 +2618,7 @@
         <v>26</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.25">
@@ -2634,7 +2634,7 @@
         <v>26</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.25">
@@ -2650,7 +2650,7 @@
         <v>26</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.25">
@@ -2666,7 +2666,7 @@
         <v>26</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2802,7 +2802,7 @@
         <v>26</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.25">
@@ -2818,7 +2818,7 @@
         <v>26</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.25">
@@ -2834,7 +2834,7 @@
         <v>26</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2986,7 +2986,7 @@
         <v>26</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.25">
@@ -3002,7 +3002,7 @@
         <v>26</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.25">
@@ -3018,7 +3018,7 @@
         <v>26</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3073,31 +3073,31 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>79</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>79</v>
@@ -3106,14 +3106,14 @@
         <v>13</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>79</v>
@@ -3122,14 +3122,14 @@
         <v>13</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>79</v>
@@ -3138,17 +3138,17 @@
         <v>13</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="A59:A70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A71:A79"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B31"/>
@@ -3156,6 +3156,12 @@
     <mergeCell ref="A24:A35"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B13:B23"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A36:A42"/>
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="B47:B52"/>
     <mergeCell ref="B53:B58"/>
@@ -3166,12 +3172,6 @@
     <mergeCell ref="B88:B90"/>
     <mergeCell ref="A80:A90"/>
     <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="A59:A70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A71:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/others/score_tag.xlsx
+++ b/static/others/score_tag.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11620" yWindow="460" windowWidth="26780" windowHeight="21860" tabRatio="500"/>
+    <workbookView xWindow="8980" yWindow="1420" windowWidth="26780" windowHeight="20900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="score" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="100">
   <si>
     <t>标签参数</t>
     <rPh sb="0" eb="1">
@@ -1130,6 +1130,30 @@
     <rPh sb="5" eb="6">
       <t>yong'hu</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感情阶段</t>
+    <rPh sb="0" eb="1">
+      <t>gan'qing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段</t>
+    <rPh sb="0" eb="1">
+      <t>jie'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初识期/探索期/发展期/稳定期</t>
+  </si>
+  <si>
+    <t>0～25/26～50/51～75/76～100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1247,7 +1271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1277,6 +1301,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1556,10 +1583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1597,7 +1624,7 @@
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1615,7 +1642,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
-      <c r="B3" s="7"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1631,7 +1658,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
-      <c r="B4" s="7"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1647,7 +1674,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
-      <c r="B5" s="7"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1663,7 +1690,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
-      <c r="B6" s="7"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1679,7 +1706,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
-      <c r="B7" s="7"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1695,7 +1722,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
-      <c r="B8" s="7"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1711,7 +1738,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
-      <c r="B9" s="7"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1727,7 +1754,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
-      <c r="B10" s="7"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1743,7 +1770,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
-      <c r="B11" s="7"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1759,7 +1786,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
-      <c r="B12" s="7"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1775,7 +1802,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1793,7 +1820,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
-      <c r="B14" s="7"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1809,7 +1836,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
-      <c r="B15" s="7"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1825,7 +1852,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
-      <c r="B16" s="7"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1841,7 +1868,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
-      <c r="B17" s="7"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1857,7 +1884,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
-      <c r="B18" s="7"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1873,7 +1900,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1889,7 +1916,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
-      <c r="B20" s="7"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1905,7 +1932,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
@@ -1921,7 +1948,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1937,7 +1964,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
@@ -1952,10 +1979,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1972,8 +1999,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
@@ -1988,8 +2015,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
@@ -2004,8 +2031,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
@@ -2020,8 +2047,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2038,8 +2065,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
@@ -2054,8 +2081,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="2" t="s">
         <v>23</v>
       </c>
@@ -2070,8 +2097,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
@@ -2086,8 +2113,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2104,8 +2131,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="2" t="s">
         <v>22</v>
       </c>
@@ -2120,8 +2147,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="2" t="s">
         <v>23</v>
       </c>
@@ -2136,8 +2163,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="2" t="s">
         <v>24</v>
       </c>
@@ -2152,10 +2179,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -2172,8 +2199,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="5" t="s">
         <v>33</v>
       </c>
@@ -2188,8 +2215,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="5" t="s">
         <v>34</v>
       </c>
@@ -2204,8 +2231,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -2222,8 +2249,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="5" t="s">
         <v>36</v>
       </c>
@@ -2238,8 +2265,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -2256,8 +2283,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="5" t="s">
         <v>36</v>
       </c>
@@ -2272,10 +2299,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -2292,8 +2319,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="5" t="s">
         <v>40</v>
       </c>
@@ -2308,8 +2335,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
       <c r="C45" s="5" t="s">
         <v>41</v>
       </c>
@@ -2324,8 +2351,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="5" t="s">
         <v>42</v>
       </c>
@@ -2340,8 +2367,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -2358,8 +2385,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="5" t="s">
         <v>44</v>
       </c>
@@ -2374,8 +2401,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="5" t="s">
         <v>45</v>
       </c>
@@ -2390,8 +2417,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
       <c r="C50" s="5" t="s">
         <v>46</v>
       </c>
@@ -2406,8 +2433,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
       <c r="C51" s="5" t="s">
         <v>47</v>
       </c>
@@ -2422,8 +2449,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
       <c r="C52" s="5" t="s">
         <v>48</v>
       </c>
@@ -2438,8 +2465,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7" t="s">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -2456,8 +2483,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
       <c r="C54" s="5" t="s">
         <v>44</v>
       </c>
@@ -2472,8 +2499,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
       <c r="C55" s="5" t="s">
         <v>45</v>
       </c>
@@ -2488,8 +2515,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
       <c r="C56" s="5" t="s">
         <v>46</v>
       </c>
@@ -2504,8 +2531,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="5" t="s">
         <v>47</v>
       </c>
@@ -2520,8 +2547,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
       <c r="C58" s="5" t="s">
         <v>48</v>
       </c>
@@ -2536,10 +2563,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -2556,8 +2583,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
       <c r="C60" s="5" t="s">
         <v>52</v>
       </c>
@@ -2572,8 +2599,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
       <c r="C61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2588,8 +2615,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
       <c r="C62" s="5" t="s">
         <v>54</v>
       </c>
@@ -2604,8 +2631,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7" t="s">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -2622,8 +2649,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
       <c r="C64" s="5" t="s">
         <v>56</v>
       </c>
@@ -2638,8 +2665,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
       <c r="C65" s="5" t="s">
         <v>57</v>
       </c>
@@ -2654,8 +2681,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="5" t="s">
         <v>58</v>
       </c>
@@ -2670,8 +2697,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7" t="s">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -2688,8 +2715,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
       <c r="C68" s="5" t="s">
         <v>56</v>
       </c>
@@ -2704,8 +2731,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
       <c r="C69" s="5" t="s">
         <v>57</v>
       </c>
@@ -2720,8 +2747,8 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
       <c r="C70" s="5" t="s">
         <v>58</v>
       </c>
@@ -2736,10 +2763,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -2756,8 +2783,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
       <c r="C72" s="5" t="s">
         <v>61</v>
       </c>
@@ -2772,8 +2799,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
       <c r="C73" s="5" t="s">
         <v>62</v>
       </c>
@@ -2788,8 +2815,8 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7" t="s">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -2806,8 +2833,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
       <c r="C75" s="5" t="s">
         <v>64</v>
       </c>
@@ -2822,8 +2849,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
       <c r="C76" s="5" t="s">
         <v>65</v>
       </c>
@@ -2838,8 +2865,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7" t="s">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -2856,8 +2883,8 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
       <c r="C78" s="5" t="s">
         <v>64</v>
       </c>
@@ -2872,8 +2899,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
       <c r="C79" s="5" t="s">
         <v>65</v>
       </c>
@@ -2888,10 +2915,10 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -2908,8 +2935,8 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
       <c r="C81" s="5" t="s">
         <v>68</v>
       </c>
@@ -2924,8 +2951,8 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
       <c r="C82" s="5" t="s">
         <v>69</v>
       </c>
@@ -2940,8 +2967,8 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="5" t="s">
         <v>70</v>
       </c>
@@ -2956,8 +2983,8 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
       <c r="C84" s="5" t="s">
         <v>71</v>
       </c>
@@ -2972,8 +2999,8 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7" t="s">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C85" s="5" t="s">
@@ -2990,8 +3017,8 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
       <c r="C86" s="5" t="s">
         <v>73</v>
       </c>
@@ -3006,8 +3033,8 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
       <c r="C87" s="5" t="s">
         <v>74</v>
       </c>
@@ -3022,8 +3049,8 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7" t="s">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -3040,8 +3067,8 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
       <c r="C89" s="5" t="s">
         <v>73</v>
       </c>
@@ -3056,8 +3083,8 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
       <c r="C90" s="5" t="s">
         <v>74</v>
       </c>
@@ -3071,49 +3098,51 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+    <row r="91" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="9"/>
+      <c r="B92" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C92" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>79</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="C93" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>79</v>
@@ -3126,10 +3155,10 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
+      <c r="A94" s="9"/>
+      <c r="B94" s="11"/>
       <c r="C94" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>79</v>
@@ -3138,6 +3167,22 @@
         <v>13</v>
       </c>
       <c r="F94" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="5" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3156,8 +3201,8 @@
     <mergeCell ref="A24:A35"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B13:B23"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="B93:B95"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:B42"/>

--- a/static/others/score_tag.xlsx
+++ b/static/others/score_tag.xlsx
@@ -1294,6 +1294,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1301,9 +1304,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1585,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1621,10 +1621,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1641,8 +1641,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1657,8 +1657,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1673,8 +1673,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1689,8 +1689,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1705,8 +1705,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1721,8 +1721,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1737,8 +1737,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1753,8 +1753,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1769,8 +1769,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1785,8 +1785,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1801,8 +1801,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1819,8 +1819,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1835,8 +1835,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1851,8 +1851,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1867,8 +1867,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1883,8 +1883,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1899,8 +1899,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1915,8 +1915,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1931,8 +1931,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
@@ -1947,8 +1947,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1963,8 +1963,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
@@ -1979,10 +1979,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1999,8 +1999,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
@@ -2015,8 +2015,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
@@ -2031,8 +2031,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
@@ -2047,8 +2047,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2065,8 +2065,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
@@ -2081,8 +2081,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="2" t="s">
         <v>23</v>
       </c>
@@ -2097,8 +2097,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
@@ -2113,8 +2113,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2131,8 +2131,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="2" t="s">
         <v>22</v>
       </c>
@@ -2147,8 +2147,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="2" t="s">
         <v>23</v>
       </c>
@@ -2163,8 +2163,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="2" t="s">
         <v>24</v>
       </c>
@@ -2179,10 +2179,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -2199,8 +2199,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="5" t="s">
         <v>33</v>
       </c>
@@ -2215,8 +2215,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="5" t="s">
         <v>34</v>
       </c>
@@ -2231,8 +2231,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -2249,8 +2249,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="5" t="s">
         <v>36</v>
       </c>
@@ -2265,8 +2265,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -2283,8 +2283,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
         <v>36</v>
       </c>
@@ -2299,10 +2299,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -2319,8 +2319,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="5" t="s">
         <v>40</v>
       </c>
@@ -2335,8 +2335,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="5" t="s">
         <v>41</v>
       </c>
@@ -2351,8 +2351,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="5" t="s">
         <v>42</v>
       </c>
@@ -2367,8 +2367,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -2385,8 +2385,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
       <c r="C48" s="5" t="s">
         <v>44</v>
       </c>
@@ -2401,8 +2401,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="5" t="s">
         <v>45</v>
       </c>
@@ -2417,8 +2417,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="5" t="s">
         <v>46</v>
       </c>
@@ -2433,8 +2433,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
       <c r="C51" s="5" t="s">
         <v>47</v>
       </c>
@@ -2449,8 +2449,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="5" t="s">
         <v>48</v>
       </c>
@@ -2465,8 +2465,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11" t="s">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -2483,8 +2483,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
       <c r="C54" s="5" t="s">
         <v>44</v>
       </c>
@@ -2499,8 +2499,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
       <c r="C55" s="5" t="s">
         <v>45</v>
       </c>
@@ -2515,8 +2515,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
       <c r="C56" s="5" t="s">
         <v>46</v>
       </c>
@@ -2531,8 +2531,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
       <c r="C57" s="5" t="s">
         <v>47</v>
       </c>
@@ -2547,8 +2547,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
       <c r="C58" s="5" t="s">
         <v>48</v>
       </c>
@@ -2563,10 +2563,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -2583,8 +2583,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="5" t="s">
         <v>52</v>
       </c>
@@ -2599,8 +2599,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2615,8 +2615,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
       <c r="C62" s="5" t="s">
         <v>54</v>
       </c>
@@ -2631,8 +2631,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11" t="s">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -2649,8 +2649,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
       <c r="C64" s="5" t="s">
         <v>56</v>
       </c>
@@ -2665,8 +2665,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
       <c r="C65" s="5" t="s">
         <v>57</v>
       </c>
@@ -2681,8 +2681,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
       <c r="C66" s="5" t="s">
         <v>58</v>
       </c>
@@ -2697,8 +2697,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11" t="s">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -2715,8 +2715,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
       <c r="C68" s="5" t="s">
         <v>56</v>
       </c>
@@ -2731,8 +2731,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
       <c r="C69" s="5" t="s">
         <v>57</v>
       </c>
@@ -2747,8 +2747,8 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
       <c r="C70" s="5" t="s">
         <v>58</v>
       </c>
@@ -2763,10 +2763,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -2783,8 +2783,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
       <c r="C72" s="5" t="s">
         <v>61</v>
       </c>
@@ -2799,8 +2799,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
       <c r="C73" s="5" t="s">
         <v>62</v>
       </c>
@@ -2815,8 +2815,8 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11" t="s">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -2833,8 +2833,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
       <c r="C75" s="5" t="s">
         <v>64</v>
       </c>
@@ -2849,8 +2849,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
       <c r="C76" s="5" t="s">
         <v>65</v>
       </c>
@@ -2865,8 +2865,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11" t="s">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -2883,8 +2883,8 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
       <c r="C78" s="5" t="s">
         <v>64</v>
       </c>
@@ -2899,8 +2899,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
       <c r="C79" s="5" t="s">
         <v>65</v>
       </c>
@@ -2915,10 +2915,10 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -2935,8 +2935,8 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
       <c r="C81" s="5" t="s">
         <v>68</v>
       </c>
@@ -2951,8 +2951,8 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
       <c r="C82" s="5" t="s">
         <v>69</v>
       </c>
@@ -2967,8 +2967,8 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
       <c r="C83" s="5" t="s">
         <v>70</v>
       </c>
@@ -2983,8 +2983,8 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
       <c r="C84" s="5" t="s">
         <v>71</v>
       </c>
@@ -2999,8 +2999,8 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11" t="s">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C85" s="5" t="s">
@@ -3017,8 +3017,8 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
       <c r="C86" s="5" t="s">
         <v>73</v>
       </c>
@@ -3033,8 +3033,8 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
       <c r="C87" s="5" t="s">
         <v>74</v>
       </c>
@@ -3049,8 +3049,8 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11" t="s">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -3067,8 +3067,8 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
       <c r="C89" s="5" t="s">
         <v>73</v>
       </c>
@@ -3083,8 +3083,8 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
       <c r="C90" s="5" t="s">
         <v>74</v>
       </c>
@@ -3099,7 +3099,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="9" t="s">
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
@@ -3119,11 +3119,11 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
+      <c r="A92" s="10"/>
       <c r="B92" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D92" s="6" t="s">
@@ -3137,11 +3137,11 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
-      <c r="B93" s="11" t="s">
+      <c r="A93" s="10"/>
+      <c r="B93" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D93" s="6" t="s">
@@ -3155,9 +3155,9 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="6" t="s">
+      <c r="A94" s="10"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="5" t="s">
         <v>88</v>
       </c>
       <c r="D94" s="6" t="s">
@@ -3171,9 +3171,9 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="6" t="s">
+      <c r="A95" s="11"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D95" s="6" t="s">
@@ -3188,19 +3188,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="A59:A70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A71:A79"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A24:A35"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B13:B23"/>
     <mergeCell ref="A91:A95"/>
     <mergeCell ref="B93:B95"/>
     <mergeCell ref="B36:B38"/>
@@ -3217,6 +3204,19 @@
     <mergeCell ref="B88:B90"/>
     <mergeCell ref="A80:A90"/>
     <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A24:A35"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="A59:A70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A71:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
